--- a/resources/experiment 2/metrics/MAPE/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Infarto de Miocardio.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3662384476648494</v>
+        <v>3662384476648496</v>
       </c>
       <c r="C2" t="n">
-        <v>3662384476648494</v>
+        <v>3662384476648496</v>
       </c>
       <c r="D2" t="n">
-        <v>3662384476648494</v>
+        <v>3662384476648496</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09424125632819554</v>
+        <v>3769118229239.652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09424125632819554</v>
+        <v>62142447652384.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09424125632819554</v>
+        <v>684533435301580.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411455328505519</v>
+        <v>0.03723385759680484</v>
       </c>
       <c r="C4" t="n">
-        <v>411455328505519</v>
+        <v>0.03614780946820455</v>
       </c>
       <c r="D4" t="n">
-        <v>411455328505519</v>
+        <v>331757495315105.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>625917393210054.8</v>
+        <v>113826734634275.8</v>
       </c>
       <c r="C5" t="n">
-        <v>625917393210054.8</v>
+        <v>23753128016470.11</v>
       </c>
       <c r="D5" t="n">
-        <v>625917393210054.8</v>
+        <v>240557970665332.5</v>
       </c>
     </row>
   </sheetData>
